--- a/excel_with_subclasses/without_zeros/province_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/province_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q509686</t>
@@ -848,9 +848,6 @@
       <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="D2">
-        <v>203</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -862,9 +859,6 @@
       <c r="C3" t="s">
         <v>144</v>
       </c>
-      <c r="D3">
-        <v>112</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -876,9 +870,6 @@
       <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="D4">
-        <v>95</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -890,9 +881,6 @@
       <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="D5">
-        <v>94</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -904,9 +892,6 @@
       <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6">
-        <v>88</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -918,9 +903,6 @@
       <c r="C7" t="s">
         <v>144</v>
       </c>
-      <c r="D7">
-        <v>81</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -932,9 +914,6 @@
       <c r="C8" t="s">
         <v>144</v>
       </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -946,9 +925,6 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="D9">
-        <v>66</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -960,9 +936,6 @@
       <c r="C10" t="s">
         <v>144</v>
       </c>
-      <c r="D10">
-        <v>63</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -974,9 +947,6 @@
       <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -988,9 +958,6 @@
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12">
-        <v>57</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1002,9 +969,6 @@
       <c r="C13" t="s">
         <v>144</v>
       </c>
-      <c r="D13">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -1016,9 +980,6 @@
       <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="D14">
-        <v>34</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -1030,9 +991,6 @@
       <c r="C15" t="s">
         <v>144</v>
       </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -1044,11 +1002,8 @@
       <c r="C16" t="s">
         <v>144</v>
       </c>
-      <c r="D16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1058,11 +1013,8 @@
       <c r="C17" t="s">
         <v>144</v>
       </c>
-      <c r="D17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1072,11 +1024,8 @@
       <c r="C18" t="s">
         <v>144</v>
       </c>
-      <c r="D18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1086,11 +1035,8 @@
       <c r="C19" t="s">
         <v>144</v>
       </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1100,11 +1046,8 @@
       <c r="C20" t="s">
         <v>144</v>
       </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1114,11 +1057,8 @@
       <c r="C21" t="s">
         <v>144</v>
       </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1128,11 +1068,8 @@
       <c r="C22" t="s">
         <v>144</v>
       </c>
-      <c r="D22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1142,11 +1079,8 @@
       <c r="C23" t="s">
         <v>144</v>
       </c>
-      <c r="D23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1156,11 +1090,8 @@
       <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1170,11 +1101,8 @@
       <c r="C25" t="s">
         <v>144</v>
       </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1184,11 +1112,8 @@
       <c r="C26" t="s">
         <v>144</v>
       </c>
-      <c r="D26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1198,11 +1123,8 @@
       <c r="C27" t="s">
         <v>144</v>
       </c>
-      <c r="D27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1212,11 +1134,8 @@
       <c r="C28" t="s">
         <v>144</v>
       </c>
-      <c r="D28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1226,11 +1145,8 @@
       <c r="C29" t="s">
         <v>144</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1240,11 +1156,8 @@
       <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="D30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1254,11 +1167,8 @@
       <c r="C31" t="s">
         <v>144</v>
       </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1268,11 +1178,8 @@
       <c r="C32" t="s">
         <v>145</v>
       </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1282,11 +1189,8 @@
       <c r="C33" t="s">
         <v>144</v>
       </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1296,11 +1200,8 @@
       <c r="C34" t="s">
         <v>146</v>
       </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1310,11 +1211,8 @@
       <c r="C35" t="s">
         <v>145</v>
       </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1324,11 +1222,8 @@
       <c r="C36" t="s">
         <v>144</v>
       </c>
-      <c r="D36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1338,11 +1233,8 @@
       <c r="C37" t="s">
         <v>144</v>
       </c>
-      <c r="D37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1352,11 +1244,8 @@
       <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="D38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1366,11 +1255,8 @@
       <c r="C39" t="s">
         <v>144</v>
       </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1380,11 +1266,8 @@
       <c r="C40" t="s">
         <v>144</v>
       </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1394,11 +1277,8 @@
       <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="D41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1408,11 +1288,8 @@
       <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="D42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1422,11 +1299,8 @@
       <c r="C43" t="s">
         <v>144</v>
       </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1436,11 +1310,8 @@
       <c r="C44" t="s">
         <v>144</v>
       </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1450,11 +1321,8 @@
       <c r="C45" t="s">
         <v>144</v>
       </c>
-      <c r="D45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1464,11 +1332,8 @@
       <c r="C46" t="s">
         <v>144</v>
       </c>
-      <c r="D46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1478,11 +1343,8 @@
       <c r="C47" t="s">
         <v>144</v>
       </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1492,11 +1354,8 @@
       <c r="C48" t="s">
         <v>144</v>
       </c>
-      <c r="D48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1506,11 +1365,8 @@
       <c r="C49" t="s">
         <v>144</v>
       </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1520,11 +1376,8 @@
       <c r="C50" t="s">
         <v>144</v>
       </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1534,11 +1387,8 @@
       <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1548,11 +1398,8 @@
       <c r="C52" t="s">
         <v>144</v>
       </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1562,11 +1409,8 @@
       <c r="C53" t="s">
         <v>144</v>
       </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1576,11 +1420,8 @@
       <c r="C54" t="s">
         <v>144</v>
       </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1590,11 +1431,8 @@
       <c r="C55" t="s">
         <v>145</v>
       </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1604,11 +1442,8 @@
       <c r="C56" t="s">
         <v>145</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1618,11 +1453,8 @@
       <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1632,11 +1464,8 @@
       <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1646,11 +1475,8 @@
       <c r="C59" t="s">
         <v>144</v>
       </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1660,11 +1486,8 @@
       <c r="C60" t="s">
         <v>145</v>
       </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1674,11 +1497,8 @@
       <c r="C61" t="s">
         <v>145</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1688,11 +1508,8 @@
       <c r="C62" t="s">
         <v>145</v>
       </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1702,11 +1519,8 @@
       <c r="C63" t="s">
         <v>144</v>
       </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1716,11 +1530,8 @@
       <c r="C64" t="s">
         <v>145</v>
       </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1730,11 +1541,8 @@
       <c r="C65" t="s">
         <v>145</v>
       </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1744,11 +1552,8 @@
       <c r="C66" t="s">
         <v>144</v>
       </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1758,11 +1563,8 @@
       <c r="C67" t="s">
         <v>147</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1772,11 +1574,8 @@
       <c r="C68" t="s">
         <v>144</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1786,11 +1585,8 @@
       <c r="C69" t="s">
         <v>144</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1800,11 +1596,8 @@
       <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1813,9 +1606,6 @@
       </c>
       <c r="C71" t="s">
         <v>148</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
